--- a/data/input-product-catologue-p3.xlsx
+++ b/data/input-product-catologue-p3.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>SẢN PHẨM: GIÁO SƯ SÂU
 Hoạt chất: Avermectin B1a, B1b (Abamectin 36g/l)
@@ -51,45 +51,6 @@
 - Phun thuốc khi sâu tuổi còn nhỏ.
 - Không phun khi trời sắp mưa to hoặc khi có gió lớn.
 - Thời gian cách ly: 7 ngày sau khi phun</t>
-  </si>
-  <si>
-    <t>SẢN PHẨM: KOTO 240SC, BENXANA 240SC, KOTO 240SC GOLD
-Hoạt chất: Thiacloprid … 240g/lít + Phụ gia đặc biệt … 760g/lít
-Hãng sản xuất: Fertiagro Pte., Ltd (Singapore)
-Đặc tính - Công dụng:
-- Koto chứa hoạt chất Thiacloprid lưu dẫn thế hệ mới, đối kháng với thụ thể Acetylcholine nicotinic trong hệ thần kinh. Nó làm rối loạn tế bào thần kinh dẫn đến cái
-chết của côn trùng.
-- Thiacloprid có phổ tác động rất rộng, hiệu quả với sâu miệng nhai và chích hút
-như: Rầy nâu, bọ trĩ, rệp sáp, rầy mềm, bọ nhảy, sâu đục quả, sâu đục cuống, sâu
-đục thân…
-Hướng dẫn sử dụng:
-SDâu tây, dưa chuột, dưa hấu...
-- Bệnh: Bọ phấn, bọ trĩ, rầy mềm...
-- Liều dùng: Pha 25-50ml/bình 25 lít. Cây non, cây trồng trong nhà kính pha liều thấp(25ml/bình 25 lít)
-Các loại hoa: Hoa cúc, hoa đồng tiền, hoa hồng, Rau họ thập tự: Bắp cải, súp lơ, su hào
-- Bệnh: Bọ phấn, rầy mềm...
-- Liều dùng: Pha 25-50ml/bình 25 lít. Cây non, cây trồng trong nhà kính pha liều thấp(25ml/bình 25 lít)
-Táo
-- Bệnh: Sâu lá, rầy mềm
-- Liều dùng: Pha 25-50ml/bình 25 lít. Cây non, cây trồng trong nhà kính pha liều thấp(25ml/bình 25 lít)
-Lúa
-- Bệnh: Sâu đục thân, cuốn lá, bọ trĩ, rầy nâu...
-- Liều dùng: Pha 25-50ml/bình 25 lít
-Trà
-- Bệnh: Bọ xít muỗi, rầy xanh
-- Liều dùng: Pha 25-50ml/bình 25 lít
-Cây rừng
-- Bệnh: Tràm, thông, tùng: Bọ róm
-- Liều dùng: Pha 25-50ml/bình 25 lít, Pha 250ml/phi 200 lít
-Cà phê
-- Bệnh: Rệp sáp, mọt đục cành
-- Liều dùng: Pha 25-50ml/bình 25 lít
-Lưu ý:
-- Thời gian cách ly 7 ngày
-- Không phun thuốc khi có gió lớn hoặc trời sắp mưa to.
-- Lượng nước phun từ 400 lít/ha.
-- Phun thuốc ướt đều lá khi sâu mới nở, sâu còn nhỏ (tuổi 1 - 2), đối với cây non
-(cây còn nhỏ), cây trong nhà kính, giảm thuốc khi pha cho thích hợp</t>
   </si>
   <si>
     <t>SẢN PHẨM: Ecudor 22.4SC
@@ -297,62 +258,6 @@
 (cây còn nhỏ), cây trong nhà kính, giảm thuốc khi pha cho thích hợp</t>
   </si>
   <si>
-    <t>SẢN PHẨM: BIPIMAI 150EC
-Hoạt chất: Pyridaben…………150g/lít - Phụ gia đặc biệt vừa đủ 1 lít
-Hãng sản xuất: Sheyang Huanghai Pesticide &amp; Chemical Industry Co., Ltd
-Đặc tính - Công dụng:
-- Bipimai 150EC chứa hoạt chất Pyridaben kìm hãm sự vận chuyển điện tử
-trong ty thể của tế bào, làm ảnh hưởng đến quá trình tạo năng lượng, gây tử
-vong cho sâu, nhện…
-- Hoạt chất Pyridaben có tác động tiếp xúc, quật ngã và gây chết nhanh, hiệu
-lực dài. Tác động đến mọi giai đoạn phát triển của sâu, nhện, đặc biệt là ấu trùng
-nhện và nhện trưởng thành.
-Hướng dẫn sử dụng:
-Cây trồng:
-Bầu, bí, mướp…
-Sâu hại:
-Bọ phấn
-Cây trồng:
-Cây có múi: bưởi, cam, chanh quýt, tắc…
-Sâu hại:
-Nhện đỏ, nhện trắng…
-Cây trồng:
-Cà các loại…
-Sâu hại:
-Bọ phấn, nhện vàng…
-Cây trồng:
-Rau màu, các loại dưa…
-Sâu hại:
-Bọ phấn, bọ nhảy, rầy mềm…
-Cây trồng:
-Hoa hồng…
-Sâu hại:
-Nhện đỏ, nhện trắng
-Cây trồng:
-Nho, các loại…
-Sâu hại:
-Nhện trắng hai chấm…
-Liều lượng: Pha 20–40 ml/bình 20 lít
-Lưu ý: 
-- Thời gian cách ly: 14 ngày
-- Không phun thuốc khi có gió lớn hoặc trời sắp mưa to.
-- Phun thuốc ướt đều lá khi sâu mới nở, sâu còn nhỏ (tuổi 1–2), đối với cây non
-(cây còn nhỏ), cây trong nhà kính, giảm thuốc khi pha cho thích hợp
-KINH NGHIỆM PHỐI TRỘN CỦA NHÀ NÔNG:
-1. Bipimai 150EC + Kyodo 25SC (Hoạt chất: Diafenthiuron 250g/l)
-Cây trồng:
-Cây ăn trái, rau màu…
-Sâu hại:
-Bọ phấn
-Liều lượng: Bipimai 20–30ml + Kyodo 20–30ml/bình 20 lít
-2. Bipimai 150EC + Tosi 30WG (Hoạt chất: Acetamiprid 30% w/w)
-Cây trồng:
-Cây ăn trái, rau màu…
-Sâu hại:
-Bọ phấn, bọ nhảy.
-Liều lượng: Bipimai 20–30ml + Tosi 5–10g/bình 20 lít</t>
-  </si>
-  <si>
     <t>SẢN PHẨM: KYODO 25SC, KYODO 50WP
 Hoạt chất: Diafenthiuron 250g/lít - Phụ gia đặc biệt vừa đủ
 Hãng sản xuất:  Fertiagro Pte., Ltd (Singapore)
@@ -439,56 +344,6 @@
 Liều lượng: 0.8 kg/ha. Pha 25-30g/bình 16 lít. Phun ướt đều cây trồng</t>
   </si>
   <si>
-    <t xml:space="preserve">SẢN PHẨM: SETIS GIÁO SƯ NHỆN 34SC
-Hoạt chất: Spirodiclofen .....34% w/w - Additives .............66% w/w
-Hãng sản xuất:  Shandong Zhongxin Kenong Biological Technology Co., Ltd
-Đặc tính - Công dụng:
-- Sản phẩm chứa hoạt chất Spirodiclofen, là hoạt chất mới và hiếm, chuyên dùng đặc
-trị nhện và côn trùng chích hút đã kháng thuốc.
-- Khả năng lưu dẫn hai chiều, ức chế quá trình tổng hợp và trao đổi chất nên thuốc có
-khả năng diệt cả ấu trùng và làm ung trứng của đối tượng gây hại, hiệu quả của
-thuốc diệt trừ cực mạnh và kéo dài.
-Hướng dẫn sử dụng Kyodo 25SC:
-Cây trồng:
-Cam, chanh, bưởi,
-quýt, chè, dâu tây…
-Sâu hại:
-Nhện đỏ, Nhện trắng, Nhện lông nhung
-Liều lượng: Pha 12–15 ml/20 lít nước.
-Lưu ý: Không thích hợp với hoa hồng và giai đoạn có hoa của cây ăn trái.
-- Không phun khi trời sắp mưa to hoặc khi có gió lớn.
-- Thời điểm: Phun vào sáng sớm hoặc chiều mát khi nhện vừa mới xuất hiện, mật
-độ khoảng 3–5 con/lá.
-- Thời gian cách ly: 7 ngày sau khi phun.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SẢN PHẨM: Butti 43SC Anh Hùng Nhện
-Hoạt chất: Bifenazate……………43% w/w - Special Additives……57% w/w
-Hãng sản xuất: Henan Guangnong Pesticide Factory
-Đặc tính - Công dụng:
-- Sản phẩm là thuốc trừ nhện lần đầu xuất hiện tại Việt Nam, với hoạt chất Bifenazate
-hoàn toàn mới chưa hình thành tính kháng nên diệt trừ rất hiệu quả các loài nhện
-nhỏ và nhện trưởng thành, hiệu lực kéo dài gấp 3 lần so với các loại thông thường.
-- Thuốc ở dạng SC nên không sợ nóng với đọt non, hoa và trái non.
-Hướng dẫn sử dụng Kyodo 25SC:
-Cây trồng:
-Hoa hồng, cam, chanh,
-dâu tây, cà chua, bơ,
-chè (trà), dưa hấu,
-sắn (khoai mì)…
-Sâu hại:
-Nhện đỏ, nhện trắng,
-rệp sáp bột hồng…
-Liều lượng: Pha 10–12 ml/20 lít nước.
-Lưu ý: 
-- Không phun khi trời sắp mưa to hoặc có gió lớn.
-- Thời điểm: Phun vào sáng sớm hoặc chiều mát khi nhện vừa mới xuất hiện.
-- Thời gian cách ly: 7 ngày sau khi phun.
-- Lượng nước phun từ 500–600 lít/ha.
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">SẢN PHẨM: Siêu Diệt Nhện
 Hoạt chất: Abamectin: 1.8% w/w - (Avermectin b1: 1.8%)
 Hãng sản xuất: Shandong Weifang Rainbow Chemical Co., Ltd
@@ -496,7 +351,7 @@
 - Abinsec nhện mới! Công thức cải tiến, mát với cây trồng, nay có thể dùng với xịt
 cho hoa hồng và giai đoạn có hoa của cây ăn trái. Có hiệu quả trên cả những vùng
 nhện đã kháng thuốc mạnh
-Hướng dẫn sử dụng Kyodo 25SC:
+Hướng dẫn sử dụng:
 Cây trồng:
 Cam, quýt,
 lúa, chè, lạc,
@@ -524,6 +379,56 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">SẢN PHẨM: SETIS GIÁO SƯ NHỆN 34SC
+Hoạt chất: Spirodiclofen .....34% w/w - Additives .............66% w/w
+Hãng sản xuất:  Shandong Zhongxin Kenong Biological Technology Co., Ltd
+Đặc tính - Công dụng:
+- Sản phẩm chứa hoạt chất Spirodiclofen, là hoạt chất mới và hiếm, chuyên dùng đặc
+trị nhện và côn trùng chích hút đã kháng thuốc.
+- Khả năng lưu dẫn hai chiều, ức chế quá trình tổng hợp và trao đổi chất nên thuốc có
+khả năng diệt cả ấu trùng và làm ung trứng của đối tượng gây hại, hiệu quả của
+thuốc diệt trừ cực mạnh và kéo dài.
+Hướng dẫn sử dụng:
+Cây trồng:
+Cam, chanh, bưởi,
+quýt, chè, dâu tây…
+Sâu hại:
+Nhện đỏ, Nhện trắng, Nhện lông nhung
+Liều lượng: Pha 12–15 ml/20 lít nước.
+Lưu ý: Không thích hợp với hoa hồng và giai đoạn có hoa của cây ăn trái.
+- Không phun khi trời sắp mưa to hoặc khi có gió lớn.
+- Thời điểm: Phun vào sáng sớm hoặc chiều mát khi nhện vừa mới xuất hiện, mật
+độ khoảng 3–5 con/lá.
+- Thời gian cách ly: 7 ngày sau khi phun.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SẢN PHẨM: Butti 43SC Anh Hùng Nhện
+Hoạt chất: Bifenazate……………43% w/w - Special Additives……57% w/w
+Hãng sản xuất: Henan Guangnong Pesticide Factory
+Đặc tính - Công dụng:
+- Sản phẩm là thuốc trừ nhện lần đầu xuất hiện tại Việt Nam, với hoạt chất Bifenazate
+hoàn toàn mới chưa hình thành tính kháng nên diệt trừ rất hiệu quả các loài nhện
+nhỏ và nhện trưởng thành, hiệu lực kéo dài gấp 3 lần so với các loại thông thường.
+- Thuốc ở dạng SC nên không sợ nóng với đọt non, hoa và trái non.
+Hướng dẫn sử dụng:
+Cây trồng:
+Hoa hồng, cam, chanh,
+dâu tây, cà chua, bơ,
+chè (trà), dưa hấu,
+sắn (khoai mì)…
+Sâu hại:
+Nhện đỏ, nhện trắng,
+rệp sáp bột hồng…
+Liều lượng: Pha 10–12 ml/20 lít nước.
+Lưu ý: 
+- Không phun khi trời sắp mưa to hoặc có gió lớn.
+- Thời điểm: Phun vào sáng sớm hoặc chiều mát khi nhện vừa mới xuất hiện.
+- Thời gian cách ly: 7 ngày sau khi phun.
+- Lượng nước phun từ 500–600 lít/ha.
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">SẢN PHẨM: Nhện Kim Cương
 Hoạt chất: Deltamethrin…………2,5% w/v - Dung môi và phụ gia…97,5% w/v
 Hãng sản xuất: Jiangsu Yangnong Chemical Co., Ltd
@@ -532,12 +437,12 @@
 làm thay đổi chức năng của hệ thần kinh trung ương của côn trùng, gây tê liệt và
 tử vong. Tác dụng nhanh, hiệu quả ngay khi trúng thuốc, thời gian tác dụng kéo
 dài (7–12 ngày). Dạng SC rất mát, sử dụng được mọi giai đoạn.
-Hướng dẫn sử dụng Kyodo 25SC:
+Hướng dẫn sử dụng:
 Cây trồng:
 Hoa hồng, hoa cúc, Dâu tây, Cam, bưởi, chanh, Ớt, rau củ, Các loại đậu
 Sâu hại:
 Nhện đỏ, nhện trắng,
-nhện vàng, nhiện lông nhun
+nhện vàng, nhiện lông nhung
 Liều lượng: Pha 20–25ml/ 20 lít nước
 Mật độ cao: Pha 30ml/
 bình 20 lít nước.
@@ -546,6 +451,716 @@
 - Phun thuốc nơi nhện sống tập trung. Phun ướt đều để đạt hiệu quả tốt nhất.
 - Không phun khi trời sắp mưa to hoặc có gió lớn.
 - Thời điểm: Phun vào sáng sớm hoặc chiều mát khi nhện vừa mới xuất hiện
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SẢN PHẨM: Diệt Nhện Sấm Sét
+Hoạt chất: Lambda Cyhalothrin 1% w/v - Special additives ……99% w/v
+Hãng sản xuất: Ascot Pro-G Limited (Anh Quốc)
+Đặc tính - Công dụng:
+- Lambda Cyhalothrin là hoạt chất thuộc nhóm cúc tổng hợp được sử dụng
+rộng rãi trong nông nghiệp, chăn nuôi, y tế, Lambda Cyhalothrin có phổ diệt
+côn trùng rộng, tác dụng nhanh, thuốc làm ngộ độc dạ dày của côn trùng và
+giết chết ngay sau khi tiếp xúc.
+Hướng dẫn sử dụng:
+Cây trồng:
+Hoa hồng, cam, chanh,
+dâu tây, súp lơ, bắp cải,
+quýt, đậu cove, hoa ly,
+hoa đồng tiền, hoa cúc…
+Sâu hại:
+Nhện đỏ, nhện trắng,
+nhện lông nhung,
+nhện vàng
+Liều lượng: Pha 24 ml/bình 20 lít.
+Chai 240 ml pha cho
+phuy 200 lít nước
+Lưu ý:  
+- Không phun khi trời sắp mưa to hoặc khi có gió lớn.
+- Thời điểm: Phun vào sáng sớm hoặc chiều mát khi nhện vừa mới xuất hiện.
+- Thời gian cách ly: 7 – 10 ngày sau khi phun
+</t>
+  </si>
+  <si>
+    <t>SẢN PHẨM: BYPHAN 800WP
+Hoạt chất: Mancozeb 800g/kg + Phụ gia 200g/kg
+Hãng sản xuất: Shenzhen Dehao Pesticides Co., Ltd.
+Đặc tính - Công dụng:
+- Byphan 800WP có công dụng trừ nấm bệnh phổ rộng, diệt nấm thông qua cơ chế tiếp xúc trực tiếp, phòng trừ được nhiều loại nấm bệnh trên nhiều loại cây trồng như: đốm lá, thán thư, thối trái trên cây ăn trái: cam, nho, táo… Phòng ngừa bệnh đốm lá, khô đầu lá trên lạc, vừng… Phòng ngừa mốc sương, sương mai trên dưa chuột, dưa hấu và khoai tây…
+Hướng dẫn sử dụng:
+Cây trồng:
+Cây ăn trái
+Bệnh hại:
+Đốm lá, thán thư,
+thối trái…
+Liều lượng: 
+Pha 50–100g/bình 20 lít, phun ngừa hoặc
+phun bằng máy áp lực pha 500g/phi
+200 lít, phun 1.000–2.000 lít/ha.
+Cây trồng:
+Lạc, vừng
+Bệnh hại:
+Đốm lá, thối đầu lá…
+Liều lượng: 
+Pha 50–100g/bình 20 lít, phun ngừa hoặc
+phun bằng máy áp lực pha 500g/phi
+200 lít, phun 600–1.000 lít/ha.
+Cây trồng:
+Dưa hấu, hành lá
+khoai tây…
+Bệnh hại:
+Mốc sương, sương mai…
+Liều lượng: 
+Pha 50–100g/bình 20 lít.
+Cây non pha 50g/bình 20 lít.
+Lưu ý:  
+- Không phun khi cây đang có hoa.
+- Trường hợp bệnh nặng cần phun lặp lại sau 5–7 ngày.
+- Đối với sân golf, xịt 1 lít nước đã pha loãng cho 1 m².
+- Thời gian cách ly: 7 ngày sau khi phun.</t>
+  </si>
+  <si>
+    <t>SẢN PHẨM: TRÙM NẤM BỆNH, GIÁO SƯ BỆNH 4.0 NHÓM SẢN PHẨM SCORTLAN 80WP - M45 ẤN
+Hoạt chất: Thiram 80% w/w + Phụ gia đặc biệt 20% w/w
+Hãng sản xuất: M/S Meenakshi Agro Chemicals (Ấn Độ)
+Đặc tính - Công dụng:
+- Scortlan 80WP chứa hoạt chất trừ nấm thế hệ mới nhất: Thiram; đây là gốc thuốc trừ nấm tân tiến, phổ tác động rộng. Thuốc thay thế tốt các sản phẩm trừ nấm độc cao như: Mancozeb, Propineb, Zineb, Chlorothalonil để phòng trừ nấm bệnh trên nhiều loại cây trồng. Thuốc có khả năng phòng trừ nhiều loại nấm bệnh như: Sương mai, mốc xám, thối nâu, đốm lá, đốm nâu, thán thư, thối rễ, héo rũ, phấn trắng, ghẻ sẹo trái, thối nhũn, bệnh do nấm fusarim, phytophthora gây ra…
+Hướng dẫn sử dụng:
+Cây trồng:
+Lạc, đậu tương, phong lan,
+cà phê, xoài, lúa, hoa mai,
+dưa hấu, cà chua, khoai tây,
+sầu riêng, cam quýt…
+Bệnh hại:
+Đốm lá, rỉ sắt, thán thư,
+cháy lá, nứt thân, chảy nhựa,
+mốc sương (bã trầu), sẹo trái,
+thối nhũn, phấn trắng…
+Liều lượng: 
+2.0 kg/ha.
+Pha 25g – 30g cho
+bình 20 lít nước.
+Lưu ý:  
+- Không phun xịt ở giai đoạn cây còn nhỏ, đang ra hoa, ra trái non, lộc non.
+- Phun thuốc khi vừa mới xuất hiện, tỷ lệ bệnh khoảng 5%.
+- Lượng nước phun: 400 – 600 lít/ha.
+- Thời gian cách ly: 7 ngày.
+- Không phun thuốc khi trời sắp mưa hoặc có gió lớn.</t>
+  </si>
+  <si>
+    <t>SẢN PHẨM: NIKO 72WP, M8 SING NHÓM SẢN PHẨM NIKO 72WP
+Hoạt chất: Cymoxanil 8% w/w + Mancozeb 64% w/w
+Hãng sản xuất: Biocrop Pte., Ltd (Singapore)
+Đặc tính - Công dụng:
+- Niko 72WP vừa là trực tiếp tiêu diệt nấm bệnh, đồng thời kích thích cây trồng
+kháng bệnh từ bên trong.
+- Niko 72WP có khả năng chuyên vị và thấm sâu nên khó bị rửa trôi khi gặp
+trời mưa và diệt mầm bệnh tận gốc.
+- Niko 72WP đặc trị mốc sương và sương mai trên dâu tây, dưa chuột, dưa hấu và
+khoai tây, nho, vàng lá chín sớm trên lúa, thán thư trên xoài, ớt, chanh dây, thối
+rễ, chết nhanh trên hồ tiêu,...
+Hướng dẫn sử dụng:
+Cây trồng:
+Dâu tây, dưa chuột,
+dưa hấu, nho,
+rau chân vịt...
+Bệnh hại:
+Mốc sương
+Liều lượng: 
+Pha 50–100g/bình 20 lít,
+cây non pha 30–50g/bình 20 lít
+Cây trồng:
+Cà chua, hành hoa,
+hành tây, khoai tây, ớt...
+Bệnh hại:
+Sương mai
+Cây trồng:
+Lúa
+Bệnh hại:
+Vàng lá chín sớm
+Liều lượng: 
+Pha 50–100g/bình 20 lít, phun ngừa
+hoặc phun bằng máy áp lực pha
+500g/phuy 200 lít, phun 600–1.000 lít/ha
+Lưu ý: Thời gian cách ly 7 ngày sau khi phun.
+- Không phun khi cây đang có hoa.
+- Trường hợp bệnh nặng cần phun lặp lại sau 5–7 ngày.
+- Đối với sân golf, xịt 1 lít nước đã pha loãng cho 1 m².
+KINH NGHIỆM PHỐI TRỘN CỦA NHÀ NÔNG:
+1. Niko 72WP + Thalonil 75WP (Hoạt chất: Chlorothalonil 75% w/w)
+Cây trồng:
+Dâu tây, dưa chuột,
+dưa hấu, nho, rauchân vịt
+Bệnh hại:
+Mốc sương
+Liều lượng: 
+Niko 30–40g + Thalonil 30–40g
+/bình 25 lít. Cây non pha liều dùng
+tối thiểu (thấp nhất).
+Cây trồng:
+Dưa hấu,cà chua,
+hành hoa, hành tây,
+khoai tây, ớt...
+Bệnh hại:
+Sương mai
+Liều lượng: 
+Niko 30–40g + Thalonil 30–40g
+/bình 25 lít, phun ngừa hoặc
+phun bằng máy phun áp lực pha
+liều dùng tối thiểu.
+Lưu ý:
+- Không phun khi cây đang có hoa.
+- Trường hợp bệnh nặng nên phun lặp lại sau 5–7 ngày.
+2. Niko 72WP + Gekko 20SC (Hoạt chất: Amisulbrom 20% w/w)
+Cây trồng:
+Dâu tây, dưa chuột,
+dưa hấu, nho, rauchân vịt
+Bệnh hại:
+Mốc sương
+Liều lượng: 
+Niko 30–40g + Gekko 15–20ml
+/bình 25 lít. Cây non pha liều dùng
+tối thiểu (thấp nhất).
+Cây trồng:
+Dưa hấu,cà chua,
+hành hoa, hành tây,
+khoai tây, ớt...
+Bệnh hại:
+Sương mai
+Liều lượng: 
+Niko 30–40g + Gekko 15–20ml
+/bình 25 lít, phun ngừa hoặc
+phun bằng máy phun áp lực pha
+liều dùng tối thiểu.
+Lưu ý:
+- Pha thuốc bột trước, thuốc nước sau.
+- Không phun khi cây đang có hoa.
+- Trường hợp bệnh nặng nên phun lặp lại sau 5–7 ngày</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SẢN PHẨM: Bác Sĩ Nấm Bệnh - Nekko 69WP
+Hoạt chất: Dimethomorph………9% w/w - Mancozeb……………60% w/w - Special additives……31% w/w
+Hãng sản xuất: Xi’an MTI Co., Ltd.
+Đặc tính - Công dụng:
+- Nhờ công nghệ phối chế độc đáo giữa hoạt chất Dimethomorph và Mancozeb, Bác Sĩ
+Nấm Bệnh trị nhanh và dứt điểm nhiều loại nấm bệnh nguy hại, đặc biệt là bệnh sương
+mai (mốc sương), nứt thân xì mủ, chết nhanh...
+- Thuốc có cơ chế ngăn chặn sự lây lan và tái nhiễm của nấm bệnh, hấp thụ mạnh mẽ cả
+rễ, thân và lá nên có thể sử dụng hiệu quả khi tưới gốc hoặc phun trên thân, lá giúp bảo
+vệ toàn diện cây trồng
+Hướng dẫn sử dụng:
+Cây trồng:
+Cà chua, dưa hấu, hoa hồng
+Bệnh hại:
+Sương mai
+Cây trồng:
+Đậu tương, cà phê, xoài
+Bệnh hại:
+Thán thư
+Cây trồng:
+Hồ tiêu
+Bệnh hại:
+Chết nhanh
+Cây trồng:
+Sầu riêng
+Bệnh hại:
+Thối thân xỉ mủ
+Cây trồng:
+Cao su
+Bệnh hại:
+Loét sọc mặt cạo
+Cây trồng:
+Cam, chanh, bưởi…
+Bệnh hại:
+Chảy gôm
+Liều lượng: 
+Sử dụng 1,8 kg/ha.
+Pha 30–50g/bình 20 lít.
+Lượng nước phun 400–600 lít/ha.
+Phun thuốc khi bệnh mới xuất hiện,
+tỷ lệ bệnh khoảng 5%.
+Lưu ý:
+- Nên phun khi bệnh vừa chớm xuất hiện, vào sáng sớm hoặc chiều mát.
+- Có thể phun lặp lại từ 7 – 14 ngày nếu áp lực bệnh cao.
+- Thời gian cách ly: 7 ngày sau khi phun.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SẢN PHẨM: Napoleon - Fortazeb 72WB
+Hoạt chất: Metalaxyl:..........8%w/w - Mancozeb:......64%w/w - Additives:........28%w/w
+Hãng sản xuất: M/s Meenakshi Agro Chemicals (Ấn Độ)
+Đặc tính - Công dụng:
+- Thuốc có đặc tính thấm sâu nhanh, lưu dẫn mạnh, khả năng trừ bệnh hiệu
+quả, bảo vệ toàn diện cây trồng ngay cả những phần non mới mọc sau
+ khi phun. Sử dụng linh hoạt như phun lên lá, quét lên vết bệnh… cực kỳ
+tiện lợi, tiết kiệm công lao động.
+Hướng dẫn sử dụng:
+Cây trồng:
+Cao su, khoai
+tây, cà phê,
+điều, hoa hồng,
+hồ tiêu, vừng,
+mắc ca, lạc
+Bệnh hại:
+Loét sọc mặt cạo, sương
+mai, rỉ sắt, thán thư, lem
+lép hạt lúa, phấn trắng,
+chết nhanh, lở cổ rễ, đốm
+lá, thối rễ,…
+Liều lượng: 
+- Pha 25 – 30 gram/bình 20L nước.
+- Phun xịt lên cây trồng hoặc quét lên
+vết bệnh.
+Lưu ý:
+- Thời gian cách ly: 07 ngày.
+- Phun khi bệnh vừa chớm xuất hiện, tỷ lệ bệnh khoảng 5 - 10%.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SẢN PHẨM: Tatsu 25WP, Metalaxyl 500 NHÓM SẢN PHẨM TATSU 25WP
+Hoạt chất: Metalaxyl…………..25% w/w + Phụ gia đặc biệt…75% w/w
+Hãng sản xuất: M/s Meenakshi Agro Chemicals (Ấn Độ)
+Đặc tính - Công dụng:
+- Tatsu 25WP là thuốc trừ bệnh phổ rộng, lưu dẫn 2 chiều. Thuốc được hấp thụ qua lá,
+thân rễ cây trồng, phun xịt lá, quét lên thân, tưới quanh gốc cây trồng.
+- Đặc biệt hiệu quả với bệnh do nấm Phytophthora.
+- Hàm lượng hoạt chất cao nhất Delta.
+- Thuốc lưu dẫn 2 chiều và thẩm sâu rất mạnh. Phổ trừ bệnh rất rộng.
+Hướng dẫn sử dụng:
+Cây trồng:
+Đậu tương
+Bệnh hại:
+Phấn trắng
+Liều lượng: 0.25 - 0.38% pha 40 g/ bình 16 lít
+Cây trồng:
+Ca cao
+Bệnh hại:
+Thối thân, quả
+Liều lượng: 0.1 - 0.15 pha 100 g/ 100 lít nước
+Cây trồng:
+Hồ tiêu
+Bệnh hại:
+Chết nhanh
+Liều lượng: 0.09% pha 90 g/ 100 lít nước
+Cây trồng:
+Cao su
+Bệnh hại:
+Vàng rụng lá
+Liều lượng: 0.10% pha 100 g/ 100 lít nước
+Cây trồng:
+Cao su
+Bệnh hại:
+Loét sọc mặt cạo
+Liều lượng: 15 g/ 1 lít (1.5%), quét thuốc lên miệng cạo
+Cây trồng:
+Sắn
+Bệnh hại:
+Vàng lá
+Liều lượng: 0.25 kg/ha pha 20 g/ bình 25 lít
+Cây trồng:
+Khoai tây
+Bệnh hại:
+Sương mai
+Liều lượng: 0.38 kg/h pha 25 g/ bình 25 lít
+Cây trồng:
+Lạc (đậu phộng
+Bệnh hại:
+Chết ẻo
+Liều lượng: 0.25 - 0.38 kg/ha pha 25 g/ bình 25 lít
+Lưu ý:
+- Lượng nước phun: 500 - 600 lít/ha.
+- Phun ướt đều cây trồng khi bệnh mới xuất hiện hoặc tỷ lệ bệnh khoảng 5%.
+- Cao su: Quét dung dịch thuốc đã pha lên mặt miệng cạo.
+- Thời gian cách ly: 7 ngày sau khi phun.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SẢN PHẨM: Thalonil 75WP
+Hoạt chất: Chlorothalonil...750 g/kg - Chất phụ gia......250 g/kg
+Hãng sản xuất: Yunnan Chemical Works, Zhanghe Pesticide Branch
+Đặc tính - Công dụng:
+- Thalonil 75WP có tác động tiếp xúc, bám dính tốt, hạn chế bị rửa trôi khi
+gặp mưa. Hiệu lực trừ bệnh cao, kéo dài, không để lại vết thuốc trên lá và quả.
+- Hoạt chất Chlorothalonil được đăng ký trong danh mục thuốc BVTV
+phòng trừ nấm bệnh phổ rộng như: đốm vòng/cà chua; sương mai/dưa hấu,
+vải thiều, đốm lá/hành, thán thư/xoài, điều...
+Hướng dẫn sử dụng:
+Cây trồng:
+Cam, chanh, bưởi, quất (tắc)
+Bệnh hại:
+Ghẻ lá, ghẻ trái
+Cây trồng:
+Đào, dâu tây, hồng quả, nhãn, nho,
+táo, thanh long, vải...
+Bệnh hại:
+Đốm lá, thán thư
+Cây trồng:
+Cà chua, cà tím, cà pháo...
+Bệnh hại:
+Mốc sương, sương mai
+Cây trồng:
+Dưa các loại
+Bệnh hại:
+Thối thân, quả
+Cây trồng:
+Đậu các loại
+Bệnh hại:
+Thối thân, quả
+Cây trồng:
+Hồ tiêu
+Bệnh hại:
+Đốm lá
+Liều lượng: 0.1 - 0.15 pha 100 g/ 100 lít nước
+Lưu ý:
+- Thời gian cách ly: 7 ngày sau khi phun.
+- Không phun khi cây đang có hoa.
+- Không phun khi trời sắp mưa to.
+- Trường hợp bệnh nặng nên phun lặp lại sau 5 – 7 ngày.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SẢN PHẨM: Trinong 50WP
+Hoạt chất: Prochloraz-Manganese complex 50% w/w - Phụ gia đặc biệt 50% w/w
+Hãng sản xuất: Ace Bioscience Pte Ltd (Singapore)
+Đặc tính - Công dụng:
+- Trinong 50WP chứa hoạt chất Prochloraz-Manganese complex là thuốc trừ
+bệnh tiên tiến; duy nhất hiện nay đăng ký tại Việt Nam. Prochloraz-Manganese
+complex vừa tạo lớp màng bảo vệ vừa lưu dẫn mạnh trong cây, ức chế tổng hợp
+Ergosterol của nấm bệnh. Thuốc có tác dụng phổ rộng, phòng và trừ nhiều loại
+nấm bệnh khác nhau trên nhiều loại cây trồng khác nhau.
+- Ngoài ra thuốc còn được sử dụng để bảo quản trái cây (trừ thanh long).
+Hướng dẫn sử dụng:
+Cây trồng:
+Lúa
+Bệnh hại:
+Đạo ôn, lem lép hạt, khô vằn, thối thân
+Cây trồng:
+Hành
+Bệnh hại:
+Đốm lá
+Cây trồng:
+Dâu tây, hoa hồng
+Bệnh hại:
+Thán thư, phấn trắng, mốc xám
+(nấm lông chuột)
+Cây trồng:
+Chanh dây
+Bệnh hại:
+Đốm nâu (bã trầu)
+Cây trồng:
+Cà Chua
+Bệnh hại:
+Đốm vòng, thán thư
+Cây trồng:
+Cam
+Bệnh hại:
+Thán thư, thối đầu trái (rụng trái)
+Cây trồng:
+Hoa cúc
+Bệnh hại:
+Đốm nâu
+Liều lượng: Pha 20 g/bình 16–20 L nước.
+Bệnh nặng pha 30 g/bình
+Pha 200 g/
+1 phi 200 lít nước
+Lưu ý:
+- Thời gian cách ly: 7 ngày.
+- Không phun cho nho ghép, xoài ghép khi cây đang có hoa hoặc trái non.
+- Không phun khi trời sắp mưa to.
+- Trường hợp bệnh nặng nên phun lặp lại sau 5 – 7 ngày.
+- Khi cây còn nhỏ, cây trồng nhà kính, xịt bằng máy áp lực thì pha 10 – 15 g/
+bình 20 lít.
+KINH NGHIỆM PHỐI TRỘN CỦA NHÀ NÔNG:
+1. Trinong 50WP + Downy 650WP (Hoạt chất: Isoprothiolane + Tricyclazole)
+Cây trồng: Lúa
+Bệnh hại: Đạo ôn
+Liều dùng: Trinong 20g + Gone super 5–10ml/bình 20 lít
+2. Trinong 50WP + Gone Super 350EC (Hoạt chất: Difenoconazo
+Cây trồng: Lúa
+Bệnh hại: Đạo ôn, lem lép hạt
+Liều dùng: Trinong 20g + Gone super 5–10ml/bình 20 lít
+Cây trồng: Dâu tây, rau màu, cây ăn trái, dưa các loại…
+Bệnh hại: Mốc xám, đốm lá, chết dây…
+Liều dùng: Trinong 20g + Gone super 5–10ml/bình 20 lít
+3. Trinong 50WP + Bisomin 2SL (Hoạt chất: Kasugamycin 20g/lít)
+Cây trồng: Các loại cây trồng
+Bệnh hại: Mốc xám, khuẩn(Xì mủ)…
+Liều dùng: Trinong 20g + Bisomin 50–100ml /bình 20 lít
+</t>
+  </si>
+  <si>
+    <t>SẢN PHẨM: BMC SULFUR 80WG, Komulunx 80WG GOLD NHÓM SẢN PHẨM SOCCARB 80WG
+Hoạt chất: Sulfur 80% w/w + Phụ gia đặc biệt vừa đủ 1 kg
+Hãng sản xuất: M/S Sunrise Agro Industries
+Đặc tính - Công dụng:
+- Soccarb 80WG chứa hoạt chất Sulfur có tác động tiếp xúc và xông hơi.
+- Soccarb 80WG có tác dụng phòng trừ nấm bệnh phổ rộng và các loài nhện gây hại cây trồng như: Phấn trắng trên xoài, đốm lá đậu phộng (lạc), hiệu quả với các loại nhện gié (rụp gié, nhện bạc)… đồng thời bổ sung lưu huỳnh (S) giúp cây phát triển tốt, hạt, trái đẹp, gia tăng năng suất
+Hướng dẫn sử dụng:
+Cây trồng:
+Bưởi, cam, chanh, quất (tắc)
+Bệnh hại:
+Ghẻ, nhện đỏ
+Cây trồng:
+Dâu tây, hoa hồng, ớt
+Bệnh hại:
+Nhện đỏ, phấn trắng
+Cây trồng:
+Cà phê, hành hoa
+Bệnh hại:
+Rỉ sắt
+Cây trồng:
+Dâu tằm
+Bệnh hại:
+Trắng trái
+Cây trồng:
+Nho, Xoài
+Bệnh hại:
+Phấn trắng
+Liều lượng: Pha 50–100g/bình 20 lít
+Cây trồng:
+Đào, nhãn
+Bệnh hại:
+Phồng lá, xoăn lá
+Liều lượng: Pha 200–400g/bình 20 lít
+Lưu ý:
+- Không sử dụng sản phẩm trong nhà kính (chất lưu huỳnh có thể gây hỏng mái).
+- Không phun khi có gió lớn hoặc trời sắp mưa to.
+- Phun thuốc lúc sáng sớm hoặc chiều mát để đạt kết quả tốt nhất.
+- Thời gian cách ly: 7 ngày sau khi phun.
+KINH NGHIỆM PHỐI TRỘN CỦA NHÀ NÔNG:
+1. Soccarb 80WG + Downy 650WP (Hoạt chất: Isoprothiolane 250g/kg + Tricyclazole 400g/kg)
+Cây trồng: Lúa
+Bệnh hại: Đạo ôn
+Liều dùng: Bacca 25–50g + Downy 25–50g/bình 20 lít
+2. Soccarb 80WG + Gone Super 350EC (Hoạt chất: Difenoconazole 150g/l + Propiconazole 50g/l + Tebuconazole)
+Cây trồng: Cây ăn trái, rau màu…
+Bệnh hại: Đốm lá, phấn trắng
+Liều dùng: Bacca 50–100g +
+Gone super 5–10ml/bình 20 lít</t>
+  </si>
+  <si>
+    <t>SẢN PHẨM: Haruko 5SC, Zeroanvil,
+Hoạt chất: Hexaconazole 5%w/w (50g/lít) + Phụ gia đặc biệt vừa đủ 1 lít
+Hãng sản xuất: M/S Meenalshi Agro Chemicals
+Đặc tính - Công dụng:
+- Hexaconazole có tính nội hấp lưu dẫn thấm sâu, làm khô nhanh vết bệnh, ngăn ngừa nấm bệnh lây lan. Bảo vệ cây trồng từ gốc tới ngọn, đặc biệt thuốc còn giúp cây có bộ lá xanh hơn.
+- Đặc trị: Nấm hồng, phấn trắng, rỉ sắt, thán thư, khô vằn, lem lép hạt, đốm mắt cua, sương mai, cháy bìa lá lúa…
+Hướng dẫn sử dụng:
+Cây trồng:
+Cây ăn trái: Dâu tây, nho, táo, xoài
+Bệnh hại:
+Đốm nâu, đốm trái, rỉ sắt
+Cây trồng:
+Cây công nghiệp: Đậu, cao su, chè (trà)
+Bệnh hại:
+Phấn trắng, thán thư
+Cây trồng:
+Cây rau màu: Khoai tây, ớt
+Bệnh hại:
+Sương mai, thán thư
+Cây trồng:
+Lúa
+Bệnh hại:
+Khô vằn, lem lép hạt 
+Liều lượng: Pha 20–50ml/bình 20 lít
+Lưu ý:
+- Không phun khi cây đang có hoa và khi trời sắp mưa to.
+- Trường hợp bệnh nặng nên phun lặp lại sau 5–7 ngày.
+- Thời gian cách ly: 7 ngày trước khi thu hoạch.
+KINH NGHIỆM PHỐI TRỘN CỦA NHÀ NÔNG:
+1. Hexaconazole + Downy 650WP (Hoạt chất: Isoprothiolane 250g/kg + Tricyclazole 400g/kg)
+Cây trồng: Lúa
+Bệnh hại: Đạo ôn, khô vằn
+Liều dùng: Hexaconazole 25–50ml + Downy 25–50g/bình 20 lít
+2. Hexaconazole + Varison 5WP (Hoạt chất: Validamycin 5% w/wl)
+Cây trồng: Lúa
+Bệnh hại: Đạo ôn, khô vằn
+Liều dùng: Hexaconazole 25–50ml + Varison 25–50g/bình 20 lít
+3. Hexaconazole + Bp-nhepbun 800WP
+Cây trồng: Lúa, nho, chè, bắp cải,
+súp lơ, su hào, hoa mai,
+rau họ thập tự, táo…
+Bệnh hại: Đạo ôn, đốm nâu, đốm vằn,
+nấm hoa vàng, đốm đen, phồng
+lá, đốm lá, khô bìa lá
+Liều dùng: Hexaconazole 40–50ml +
+Bp-nhepbun 800WP 50–75g
+/bình 20 lít</t>
+  </si>
+  <si>
+    <t>SẢN PHẨM: HoangANHVIL 50SC
+Hoạt chất: Hexaconazole 5%w/w (50g/lít) + Phụ gia đặc biệt vừa đủ 1 lít
+Hãng sản xuất: Crop Life Science Ltd
+Đặc tính - Công dụng:
+- Hexaconazole có tính nội hấp lưu dẫn thấm sâu, làm khô nhanh vết bệnh, ngăn ngừa nấm bệnh lây lan. Bảo vệ cây trồng từ gốc tới ngọn, đặc biệt thuốc còn giúp cây có bộ lá xanh hơn.
+- Đặc trị: Nấm hồng, phấn trắng, rỉ sắt, thán thư, khô vằn, lem lép hạt, đốm mắt cua, sương mai, cháy bìa lá lúa…
+Hướng dẫn sử dụng:
+Cây trồng:
+Cây ăn trái: Dâu tây, nho, táo, xoài
+Bệnh hại:
+Đốm nâu, đốm trái, rỉ sắt
+Cây trồng:
+Cây công nghiệp: Đậu, cao su, chè (trà)
+Bệnh hại:
+Phấn trắng, thán thư
+Cây trồng:
+Cây rau màu: Khoai tây, ớt
+Bệnh hại:
+Sương mai, thán thư
+Cây trồng:
+Lúa
+Bệnh hại:
+Khô vằn, lem lép hạt 
+Liều lượng: Pha 20–50ml/bình 20 lít
+Lưu ý:
+- Không phun khi cây đang có hoa và khi trời sắp mưa to.
+- Trường hợp bệnh nặng nên phun lặp lại sau 5–7 ngày.
+- Thời gian cách ly: 7 ngày trước khi thu hoạch.
+KINH NGHIỆM PHỐI TRỘN CỦA NHÀ NÔNG:
+1. Hexaconazole + Downy 650WP (Hoạt chất: Isoprothiolane 250g/kg + Tricyclazole 400g/kg)
+Cây trồng: Lúa
+Bệnh hại: Đạo ôn, khô vằn
+Liều dùng: Hexaconazole 25–50ml + Downy 25–50g/bình 20 lít
+2. Hexaconazole + Varison 5WP (Hoạt chất: Validamycin 5% w/wl)
+Cây trồng: Lúa
+Bệnh hại: Đạo ôn, khô vằn
+Liều dùng: Hexaconazole 25–50ml + Varison 25–50g/bình 20 lít
+3. Hexaconazole + Bp-nhepbun 800WP
+Cây trồng: Lúa, nho, chè, bắp cải,
+súp lơ, su hào, hoa mai,
+rau họ thập tự, táo…
+Bệnh hại: Đạo ôn, đốm nâu, đốm vằn,
+nấm hoa vàng, đốm đen, phồng
+lá, đốm lá, khô bìa lá
+Liều dùng: Hexaconazole 40–50ml +
+Bp-nhepbun 800WP 50–75g
+/bình 20 lít</t>
+  </si>
+  <si>
+    <t>SẢN PHẨM: MEKONGVIL 5SC
+Hoạt chất: Hexaconazole 5%w/w (50g/lít) + Phụ gia đặc biệt vừa đủ 1 lít
+Hãng sản xuất: Binapuri Sakti Sdn Ltd
+Đặc tính - Công dụng:
+- Hexaconazole có tính nội hấp lưu dẫn thấm sâu, làm khô nhanh vết bệnh, ngăn ngừa nấm bệnh lây lan. Bảo vệ cây trồng từ gốc tới ngọn, đặc biệt thuốc còn giúp cây có bộ lá xanh hơn.
+- Đặc trị: Nấm hồng, phấn trắng, rỉ sắt, thán thư, khô vằn, lem lép hạt, đốm mắt cua, sương mai, cháy bìa lá lúa…
+Hướng dẫn sử dụng:
+Cây trồng:
+Cây ăn trái: Dâu tây, nho, táo, xoài
+Bệnh hại:
+Đốm nâu, đốm trái, rỉ sắt
+Cây trồng:
+Cây công nghiệp: Đậu, cao su, chè (trà)
+Bệnh hại:
+Phấn trắng, thán thư
+Cây trồng:
+Cây rau màu: Khoai tây, ớt
+Bệnh hại:
+Sương mai, thán thư
+Cây trồng:
+Lúa
+Bệnh hại:
+Khô vằn, lem lép hạt 
+Liều lượng: Pha 20–50ml/bình 20 lít
+Lưu ý:
+- Không phun khi cây đang có hoa và khi trời sắp mưa to.
+- Trường hợp bệnh nặng nên phun lặp lại sau 5–7 ngày.
+- Thời gian cách ly: 7 ngày trước khi thu hoạch.
+KINH NGHIỆM PHỐI TRỘN CỦA NHÀ NÔNG:
+1. Hexaconazole + Downy 650WP (Hoạt chất: Isoprothiolane 250g/kg + Tricyclazole 400g/kg)
+Cây trồng: Lúa
+Bệnh hại: Đạo ôn, khô vằn
+Liều dùng: Hexaconazole 25–50ml + Downy 25–50g/bình 20 lít
+2. Hexaconazole + Varison 5WP (Hoạt chất: Validamycin 5% w/wl)
+Cây trồng: Lúa
+Bệnh hại: Đạo ôn, khô vằn
+Liều dùng: Hexaconazole 25–50ml + Varison 25–50g/bình 20 lít
+3. Hexaconazole + Bp-nhepbun 800WP
+Cây trồng: Lúa, nho, chè, bắp cải,
+súp lơ, su hào, hoa mai,
+rau họ thập tự, táo…
+Bệnh hại: Đạo ôn, đốm nâu, đốm vằn,
+nấm hoa vàng, đốm đen, phồng
+lá, đốm lá, khô bìa lá
+Liều dùng: Hexaconazole 40–50ml +
+Bp-nhepbun 800WP 50–75g
+/bình 20 lít</t>
+  </si>
+  <si>
+    <t>SẢN PHẨM: KOTO 240SC, BENXANA 240SC, KOTO 240SC GOLD
+Hoạt chất: Thiacloprid … 240g/lít + Phụ gia đặc biệt … 760g/lít
+Hãng sản xuất: Fertiagro Pte., Ltd (Singapore)
+Đặc tính - Công dụng:
+- Koto chứa hoạt chất Thiacloprid lưu dẫn thế hệ mới, đối kháng với thụ thể Acetylcholine nicotinic trong hệ thần kinh. Nó làm rối loạn tế bào thần kinh dẫn đến cái
+chết của côn trùng.
+- Thiacloprid có phổ tác động rất rộng, hiệu quả với sâu miệng nhai và chích hút
+như: Rầy nâu, bọ trĩ, rệp sáp, rầy mềm, bọ nhảy, sâu đục quả, sâu đục cuống, sâu
+đục thân…
+Hướng dẫn sử dụng:
+Cây trồng: Dâu tây, dưa chuột, dưa hấu...
+Sâu hại: Bọ phấn, bọ trĩ, rầy mềm...
+Liều dùng: Pha 25-50ml/bình 25 lít. Cây non, cây trồng trong nhà kính pha liều thấp(25ml/bình 25 lít)
+Cây trồng: Các loại hoa Hoa cúc, hoa đồng tiền, hoa hồng, Rau họ thập tự: Bắp cải, súp lơ, su hào
+Sâu hại: Bọ phấn, rầy mềm...
+Liều dùng: Pha 25-50ml/bình 25 lít. Cây non, cây trồng trong nhà kính pha liều thấp(25ml/bình 25 lít)
+Cây trồng: Táo
+Sâu hại: Sâu lá, rầy mềm
+Liều dùng: Pha 25-50ml/bình 25 lít. Cây non, cây trồng trong nhà kính pha liều thấp(25ml/bình 25 lít)
+Cây trồng: Lúa
+Sâu hại: Sâu đục thân, cuốn lá, bọ trĩ, rầy nâu...
+Liều dùng: Pha 25-50ml/bình 25 lít
+Cây trồng: Trà
+Sâu hại: Bọ xít muỗi, rầy xanh
+Liều dùng: Pha 25-50ml/bình 25 lít
+Cây trồng: Cây rừng
+Sâu hại: Tràm, thông, tùng: Bọ róm
+Liều dùng: Pha 25-50ml/bình 25 lít, Pha 250ml/phi 200 lít
+Cây trồng: Cà phê
+Sâu hại: Rệp sáp, mọt đục cành
+Liều dùng: Pha 25-50ml/bình 25 lít
+Lưu ý:
+- Thời gian cách ly 7 ngày
+- Không phun thuốc khi có gió lớn hoặc trời sắp mưa to.
+- Lượng nước phun từ 400 lít/ha.
+- Phun thuốc ướt đều lá khi sâu mới nở, sâu còn nhỏ (tuổi 1 - 2), đối với cây non
+(cây còn nhỏ), cây trong nhà kính, giảm thuốc khi pha cho thích hợp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SẢN PHẨM: FORTHANE 80WP
+Hoạt chất: Mancozeb 80% w/w + Phụ gia 20% w/w
+Hãng sản xuất: Forward (Beihai) Hepu Pesticide Co., Ltd
+Đặc tính - Công dụng:
+- Forthane 80WP có công dụng trừ nấm bệnh phổ rộng, diệt nấm thông qua cơ chế tiếp xúc trực tiếp, phòng trừ được nhiều loại nấm bệnh trên nhiều loại cây trồng như: đốm lá, thán thư, thối trái trên cây ăn trái: cam, nho, táo… Phòng ngừa bệnh đốm lá, khô đầu lá trên lạc, vừng… Phòng ngừa mốc sương, sương mai trên dưa chuột, dưa hấu và khoai tây…
+Hướng dẫn sử dụng:
+Cây trồng:
+Cây ăn trái
+Bệnh hại:
+Đốm lá, thán thư,
+thối trái…
+Liều lượng: 
+Pha 50–100g/bình 20 lít, phun ngừa hoặc
+phun bằng máy áp lực pha 500g/phi
+200 lít, phun 1.000–2.000 lít/ha.
+Cây trồng:
+Lạc, vừng
+Bệnh hại:
+Đốm lá, thối đầu lá…
+Liều lượng: 
+Pha 50–100g/bình 20 lít, phun ngừa hoặc
+phun bằng máy áp lực pha 500g/phi
+200 lít, phun 600–1.000 lít/ha.
+Cây trồng:
+Dưa hấu, hành lá
+khoai tây…
+Bệnh hại:
+Mốc sương, sương mai…
+Liều lượng: 
+Pha 50–100g/bình 20 lít.
+Cây non pha 50g/bình 20 lít.
+Lưu ý:  
+- Không phun khi cây đang có hoa.
+- Trường hợp bệnh nặng cần phun lặp lại sau 5–7 ngày.
+- Đối với sân golf, xịt 1 lít nước đã pha loãng cho 1 m².
+- Thời gian cách ly: 7 ngày sau khi phun.
 </t>
   </si>
 </sst>
@@ -869,9 +1484,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -880,7 +1493,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="375" x14ac:dyDescent="0.25">
@@ -890,102 +1503,128 @@
     </row>
     <row r="3" spans="1:1" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="315" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="409.5" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="330" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="330" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" ht="360" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="360" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="345" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+    <row r="14" spans="1:1" ht="390" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="345" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+    <row r="15" spans="1:1" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
+    <row r="17" spans="1:1" ht="405" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
